--- a/Excel reader/B5.xlsx
+++ b/Excel reader/B5.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B143</t>
+          <t>181b143</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B139</t>
+          <t>181b139</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B138</t>
+          <t>181b138</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181B145</t>
+          <t>181b145</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -518,7 +518,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181B140</t>
+          <t>181b140</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B133</t>
+          <t>181b133</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B141</t>
+          <t>181b141</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B134</t>
+          <t>181b134</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B142</t>
+          <t>181b142</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -698,7 +698,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B132</t>
+          <t>181b132</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -716,7 +716,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B147</t>
+          <t>181b147</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -734,7 +734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B160</t>
+          <t>181b160</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -752,7 +752,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181B152</t>
+          <t>181b152</t>
         </is>
       </c>
       <c r="B19" t="n">
